--- a/数据整理/stocks/A股/创业板/300428-立中集团.xlsx
+++ b/数据整理/stocks/A股/创业板/300428-立中集团.xlsx
@@ -7,7 +7,8 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -773,7 +774,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -784,17 +785,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -804,13 +825,483 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>700003</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>平安策略先锋混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>25.68</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>72.64</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6163</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>004390</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>平安转型创新灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>15.43</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.10</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4166</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>012184</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>大成创新趋势混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>8.05</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>72.67</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2447</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>004391</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>平安转型创新灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>7.73</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>88.10</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2087</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>008274</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>大成行业先锋混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>73.98</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0970</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>002945</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>大成盛世精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>70.48</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0467</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011765</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>兴银高端制造混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.23</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0279</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>008275</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>大成行业先锋混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>73.98</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0137</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011766</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>兴银高端制造混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.23</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0108</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>012185</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>大成创新趋势混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>72.67</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009027</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>浦银安盛安远回报一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>20.03</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>11</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.69</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>2021-Q4</t>
         </is>
       </c>
-      <c r="C2" t="n">
+      <c r="C3" t="n">
         <v>7</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D3" t="n">
         <v>0.43</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300428-立中集团.xlsx
+++ b/数据整理/stocks/A股/创业板/300428-立中集团.xlsx
@@ -8,7 +8,8 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1248,7 +1249,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1259,17 +1260,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1279,14 +1300,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>11</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.69</v>
+          <t>160926</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>大成创业板两年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>37.48</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.33</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.1769</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -1295,13 +1338,875 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>700003</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>平安策略先锋混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>29.73</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>79.27</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.9870</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>004390</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>平安转型创新灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>17.03</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.52</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5722</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>519170</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>浦银安盛增长动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>9.02</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.55</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3897</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>519110</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>浦银安盛价值成长混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>9.04</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.52</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3643</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>004391</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>平安转型创新灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>7.03</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.52</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2362</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>550009</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>信诚中小盘混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.75</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1950</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009798</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>大成创业板两年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>6.21</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>88.33</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1950</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>217012</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>招商行业领先混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.12</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0964</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>960019</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>招商行业领先混合H</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.12</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0964</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>519113</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>浦银安盛精致生活混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.27</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0882</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>006430</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>凯石澜龙头经济定期开放混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.26</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0745</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>519120</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>浦银安盛新兴产业混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.16</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0728</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>011765</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>兴银高端制造混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.04</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0253</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>011766</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>兴银高端制造混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.04</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0154</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>008842</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>同泰远见灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.62</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>008843</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>同泰远见灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.62</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>005146</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>兴银丰润灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.15</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>014003</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>浦银安盛增长动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>89.55</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>014061</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>浦银安盛新兴产业混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>92.16</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>960031</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>浦银安盛价值成长混合H</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>91.52</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>014011</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>浦银安盛价值成长混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>91.52</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>22</v>
+      </c>
+      <c r="D2" t="n">
+        <v>4.6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>11</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.69</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>2021-Q4</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C4" t="n">
         <v>7</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D4" t="n">
         <v>0.43</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300428-立中集团.xlsx
+++ b/数据整理/stocks/A股/创业板/300428-立中集团.xlsx
@@ -6,10 +6,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -453,7 +453,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,37 +464,17 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>基金代码</t>
+          <t>日期</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>基金名称</t>
+          <t>持有数量(只)</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
           <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -504,36 +484,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>011815</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>恒越优势精选混合型发起式证券投资基金</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>6.77</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>93.99</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.04</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.2058</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>5</v>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>22</v>
+      </c>
+      <c r="D2" t="n">
+        <v>4.6</v>
       </c>
     </row>
     <row r="3">
@@ -542,36 +500,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>011765</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>兴银高端制造混合A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>3.15</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>94.42</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2.46</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0775</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>10</v>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>11</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.69</v>
       </c>
     </row>
     <row r="4">
@@ -580,188 +516,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>004703</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>南方兴盛先锋灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>1.45</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>73.63</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>4.27</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0619</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>013028</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>恒越品质生活混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>1.68</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>93.93</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2.34</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0393</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>012977</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>瑞达鑫红量化6个月持有混合型证券投资基金A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>2.44</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>91.71</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>1.08</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0264</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>011766</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>兴银高端制造混合C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.55</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>94.42</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>2.46</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0135</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>012978</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>瑞达鑫红量化6个月持有混合型证券投资基金C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.40</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>91.71</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>1.08</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0043</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>9</v>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>7</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.43</v>
       </c>
     </row>
   </sheetData>
@@ -770,6 +532,894 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>160926</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>大成创业板两年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>37.48</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.33</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.1769</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>700003</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>平安策略先锋混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>29.73</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>79.27</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.9870</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>004390</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>平安转型创新灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>17.03</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.52</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5722</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>519170</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>浦银安盛增长动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>9.02</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.55</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3897</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>519110</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>浦银安盛价值成长混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>9.04</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.52</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3643</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>004391</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>平安转型创新灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>7.03</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.52</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2362</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>550009</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>信诚中小盘混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.75</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1950</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009798</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>大成创业板两年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>6.21</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>88.33</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1950</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>217012</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>招商行业领先混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.12</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0964</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>960019</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>招商行业领先混合H</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.12</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0964</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>519113</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>浦银安盛精致生活混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.27</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0882</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>006430</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>凯石澜龙头经济定期开放混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.26</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0745</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>519120</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>浦银安盛新兴产业混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.16</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0728</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>011765</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>兴银高端制造混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.04</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0253</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>011766</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>兴银高端制造混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.04</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0154</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>008842</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>同泰远见灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.62</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>008843</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>同泰远见灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.62</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>005146</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>兴银丰润灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.15</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>014003</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>浦银安盛增长动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>89.55</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>014061</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>浦银安盛新兴产业混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>92.16</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>960031</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>浦银安盛价值成长混合H</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>91.52</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>014011</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>浦银安盛价值成长混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>91.52</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1243,13 +1893,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1300,36 +1950,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>160926</t>
+          <t>011815</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>大成创业板两年定期开放混合A</t>
+          <t>恒越优势精选混合型发起式证券投资基金</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>37.48</t>
+          <t>6.77</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>88.33</t>
+          <t>93.99</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.14</t>
+          <t>3.04</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.1769</t>
+          <t>0.2058</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -1338,32 +1988,32 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>700003</t>
+          <t>011765</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>平安策略先锋混合</t>
+          <t>兴银高端制造混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>29.73</t>
+          <t>3.15</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>79.27</t>
+          <t>94.42</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.32</t>
+          <t>2.46</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.9870</t>
+          <t>0.0775</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -1376,36 +2026,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>004390</t>
+          <t>004703</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>平安转型创新灵活配置混合A</t>
+          <t>南方兴盛先锋灵活配置混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>17.03</t>
+          <t>1.45</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>92.52</t>
+          <t>73.63</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.36</t>
+          <t>4.27</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.5722</t>
+          <t>0.0619</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -1414,36 +2064,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>519170</t>
+          <t>013028</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>浦银安盛增长动力灵活配置混合</t>
+          <t>恒越品质生活混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>9.02</t>
+          <t>1.68</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>89.55</t>
+          <t>93.93</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4.32</t>
+          <t>2.34</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.3897</t>
+          <t>0.0393</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -1452,36 +2102,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>519110</t>
+          <t>012977</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>浦银安盛价值成长混合A</t>
+          <t>瑞达鑫红量化6个月持有混合型证券投资基金A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>9.04</t>
+          <t>2.44</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>91.52</t>
+          <t>91.71</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>4.03</t>
+          <t>1.08</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.3643</t>
+          <t>0.0264</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -1490,32 +2140,32 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>004391</t>
+          <t>011766</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>平安转型创新灵活配置混合C</t>
+          <t>兴银高端制造混合C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>7.03</t>
+          <t>0.55</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>92.52</t>
+          <t>94.42</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>3.36</t>
+          <t>2.46</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.2362</t>
+          <t>0.0135</t>
         </is>
       </c>
       <c r="H7" t="n">
@@ -1528,686 +2178,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>550009</t>
+          <t>012978</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>信诚中小盘混合</t>
+          <t>瑞达鑫红量化6个月持有混合型证券投资基金C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>4.61</t>
+          <t>0.40</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>92.75</t>
+          <t>91.71</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>4.23</t>
+          <t>1.08</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.1950</t>
+          <t>0.0043</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>009798</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>大成创业板两年定期开放混合C</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>6.21</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>88.33</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>3.14</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.1950</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>217012</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>招商行业领先混合A</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>2.86</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>91.12</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>3.37</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0964</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
         <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>960019</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>招商行业领先混合H</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>2.86</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>91.12</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>3.37</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0964</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>519113</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>浦银安盛精致生活混合</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>2.37</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>93.27</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>3.72</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0882</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>006430</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>凯石澜龙头经济定期开放混合</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>2.07</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>93.26</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>3.60</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0745</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>519120</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>浦银安盛新兴产业混合</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>2.29</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>92.16</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>3.18</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0728</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>011765</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>兴银高端制造混合A</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0.66</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>94.04</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>3.84</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.0253</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>011766</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>兴银高端制造混合C</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>0.40</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>94.04</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>3.84</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.0154</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>008842</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>同泰远见灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>0.29</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>94.62</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>2.72</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.0079</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>008843</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>同泰远见灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>0.09</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>94.62</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>2.72</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.0024</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>005146</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>兴银丰润灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>0.05</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>94.15</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>3.60</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.0018</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>014003</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>浦银安盛增长动力灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>0.04</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>89.55</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>4.32</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.0017</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>014061</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>浦银安盛新兴产业混合C</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>92.16</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>3.18</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.0003</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>960031</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>浦银安盛价值成长混合H</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>91.52</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>4.03</t>
-        </is>
-      </c>
-      <c r="G22" t="n">
-        <v>0</v>
-      </c>
-      <c r="H22" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>014011</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>浦银安盛价值成长混合C</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>91.52</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>4.03</t>
-        </is>
-      </c>
-      <c r="G23" t="n">
-        <v>0</v>
-      </c>
-      <c r="H23" t="n">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>22</v>
-      </c>
-      <c r="D2" t="n">
-        <v>4.6</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>11</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.69</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>7</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.43</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/创业板/300428-立中集团.xlsx
+++ b/数据整理/stocks/A股/创业板/300428-立中集团.xlsx
@@ -7,9 +7,10 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -453,7 +454,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,14 +485,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
-        <v>4.6</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="3">
@@ -500,14 +501,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="D3" t="n">
-        <v>1.69</v>
+        <v>4.6</v>
       </c>
     </row>
     <row r="4">
@@ -516,13 +517,29 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>11</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.69</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2021-Q4</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>7</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>0.43</v>
       </c>
     </row>
@@ -532,6 +549,176 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>011765</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>兴银高端制造混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.99</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0158</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>011766</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>兴银高端制造混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.99</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0095</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005146</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>兴银丰润灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.81</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1419,7 +1606,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1893,7 +2080,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/创业板/300428-立中集团.xlsx
+++ b/数据整理/stocks/A股/创业板/300428-立中集团.xlsx
@@ -7,10 +7,11 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -454,7 +455,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,14 +486,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>0.03</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="3">
@@ -501,14 +502,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
-        <v>4.6</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="4">
@@ -517,14 +518,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="D4" t="n">
-        <v>1.69</v>
+        <v>4.6</v>
       </c>
     </row>
     <row r="5">
@@ -533,13 +534,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>11</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.69</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2021-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>7</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.43</v>
       </c>
     </row>
@@ -549,6 +566,138 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>580006</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>东吴新经济混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.15</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0467</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>012617</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>东吴新经济混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.15</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0169</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -718,7 +867,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1606,7 +1755,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2080,7 +2229,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
